--- a/Prices/Монитор----Nov-21--3.xlsx
+++ b/Prices/Монитор----Nov-21--3.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="16095" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1402,8 +1402,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1462,17 +1462,22 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1510,7 +1515,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1544,6 +1549,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1578,9 +1584,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1753,14 +1760,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L221"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1859,7 +1868,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1923,7 +1932,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1987,7 +1996,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2051,7 +2060,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2115,7 +2124,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2243,7 +2252,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2307,7 +2316,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2371,7 +2380,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2435,7 +2444,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2499,7 +2508,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2531,7 +2540,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2563,7 +2572,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2595,7 +2604,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2659,7 +2668,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2691,7 +2700,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2723,7 +2732,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2755,7 +2764,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2787,7 +2796,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2819,7 +2828,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2851,7 +2860,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2883,7 +2892,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2947,7 +2956,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2979,7 +2988,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -3011,7 +3020,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -3075,7 +3084,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -3107,7 +3116,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3139,7 +3148,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3200,7 +3209,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3232,7 +3241,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3264,7 +3273,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3296,7 +3305,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -3328,7 +3337,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -3357,7 +3366,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -3386,7 +3395,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -3444,7 +3453,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -3470,7 +3479,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -3560,7 +3569,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -3592,7 +3601,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -3624,7 +3633,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -3656,7 +3665,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -3688,7 +3697,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -3752,7 +3761,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3784,7 +3793,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3848,7 +3857,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3880,7 +3889,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3912,7 +3921,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3944,7 +3953,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3976,7 +3985,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -4008,7 +4017,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -4040,7 +4049,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -4136,7 +4145,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -4168,7 +4177,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -4200,7 +4209,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -4229,7 +4238,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -4261,7 +4270,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -4293,7 +4302,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -4322,7 +4331,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -4351,7 +4360,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -4383,7 +4392,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -4415,7 +4424,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -4479,7 +4488,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -4511,7 +4520,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -4543,7 +4552,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -4575,7 +4584,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -4607,7 +4616,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -4639,7 +4648,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -4671,7 +4680,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -4703,7 +4712,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -4735,7 +4744,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -4767,7 +4776,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -4799,7 +4808,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -4831,7 +4840,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -4895,7 +4904,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -4927,7 +4936,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -4959,7 +4968,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5023,7 +5032,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5055,7 +5064,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5119,7 +5128,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5151,7 +5160,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5183,7 +5192,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5215,7 +5224,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -5279,7 +5288,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5343,7 +5352,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5375,7 +5384,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5407,7 +5416,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5436,7 +5445,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5500,7 +5509,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5532,7 +5541,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5564,7 +5573,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5596,7 +5605,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5628,7 +5637,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5660,7 +5669,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5692,7 +5701,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5724,7 +5733,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5756,7 +5765,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5788,7 +5797,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5820,7 +5829,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5852,7 +5861,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5884,7 +5893,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5913,7 +5922,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5945,7 +5954,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5974,7 +5983,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6003,7 +6012,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6035,7 +6044,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6067,7 +6076,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6099,7 +6108,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6195,7 +6204,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6227,7 +6236,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6259,7 +6268,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6323,7 +6332,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6355,7 +6364,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6387,7 +6396,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6419,7 +6428,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6451,7 +6460,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6483,7 +6492,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6515,7 +6524,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6547,7 +6556,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6643,7 +6652,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6675,7 +6684,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6707,7 +6716,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6739,7 +6748,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6771,7 +6780,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6803,7 +6812,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6835,7 +6844,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6867,7 +6876,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6899,7 +6908,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6931,7 +6940,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6963,7 +6972,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6995,7 +7004,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -7027,7 +7036,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -7059,7 +7068,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7123,7 +7132,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7155,7 +7164,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7187,7 +7196,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7219,7 +7228,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -7251,7 +7260,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7283,7 +7292,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7315,7 +7324,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7347,7 +7356,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7379,7 +7388,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7443,7 +7452,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7475,7 +7484,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -7507,7 +7516,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7539,7 +7548,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7571,7 +7580,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7603,7 +7612,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7635,7 +7644,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7667,7 +7676,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7699,7 +7708,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7731,7 +7740,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7763,7 +7772,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7792,7 +7801,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -7824,7 +7833,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -7856,7 +7865,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -7888,7 +7897,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -7920,7 +7929,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7952,7 +7961,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7984,7 +7993,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -8016,7 +8025,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -8048,7 +8057,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -8080,7 +8089,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -8112,7 +8121,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -8144,7 +8153,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -8176,7 +8185,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -8208,7 +8217,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -8240,7 +8249,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -8272,7 +8281,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -8304,7 +8313,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -8336,7 +8345,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -8368,7 +8377,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -8400,7 +8409,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -8432,7 +8441,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -8464,7 +8473,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -8496,7 +8505,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -8525,7 +8534,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -8554,7 +8563,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -8583,7 +8592,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -8612,7 +8621,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -8638,7 +8647,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -8667,7 +8676,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -8696,7 +8705,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -8722,7 +8731,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
